--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38480" yWindow="7060" windowWidth="23420" windowHeight="11320" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -90,6 +90,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +451,9 @@
         <is>
           <t>BGDP BAU Gross Domestic Product</t>
         </is>
+      </c>
+      <c r="C1" s="9" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -656,7 +660,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>273677100000</v>
+        <v>291687600000</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +700,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>280229500000</v>
+        <v>301587200000</v>
       </c>
     </row>
     <row r="4">
@@ -736,7 +740,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>289230400000</v>
+        <v>308031600000</v>
       </c>
     </row>
     <row r="5">
@@ -776,7 +780,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>299405700000</v>
+        <v>313837200000</v>
       </c>
     </row>
     <row r="6">
@@ -816,7 +820,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>311705600000</v>
+        <v>323674900000</v>
       </c>
     </row>
     <row r="7">
@@ -856,7 +860,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>321431900000</v>
+        <v>330802000000</v>
       </c>
     </row>
     <row r="8">
